--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.03814355602818</v>
+        <v>0.036602</v>
       </c>
       <c r="H2">
-        <v>5.03814355602818</v>
+        <v>0.109806</v>
       </c>
       <c r="I2">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="J2">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>8.087093777001774</v>
+        <v>0.06401876470200002</v>
       </c>
       <c r="R2">
-        <v>8.087093777001774</v>
+        <v>0.5761688823180001</v>
       </c>
       <c r="S2">
-        <v>0.001550337819640527</v>
+        <v>8.339870043596587E-06</v>
       </c>
       <c r="T2">
-        <v>0.001550337819640527</v>
+        <v>8.339870043596588E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.03814355602818</v>
+        <v>0.036602</v>
       </c>
       <c r="H3">
-        <v>5.03814355602818</v>
+        <v>0.109806</v>
       </c>
       <c r="I3">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="J3">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>717.6104843372955</v>
+        <v>5.235387323106668</v>
       </c>
       <c r="R3">
-        <v>717.6104843372955</v>
+        <v>47.11848590796001</v>
       </c>
       <c r="S3">
-        <v>0.1375696516346234</v>
+        <v>0.00068202581080479</v>
       </c>
       <c r="T3">
-        <v>0.1375696516346234</v>
+        <v>0.00068202581080479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.03814355602818</v>
+        <v>0.036602</v>
       </c>
       <c r="H4">
-        <v>5.03814355602818</v>
+        <v>0.109806</v>
       </c>
       <c r="I4">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="J4">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>612.7116839622669</v>
+        <v>4.860921728824001</v>
       </c>
       <c r="R4">
-        <v>612.7116839622669</v>
+        <v>43.748295559416</v>
       </c>
       <c r="S4">
-        <v>0.1174600075596635</v>
+        <v>0.0006332433263777194</v>
       </c>
       <c r="T4">
-        <v>0.1174600075596635</v>
+        <v>0.0006332433263777195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.03814355602818</v>
+        <v>0.036602</v>
       </c>
       <c r="H5">
-        <v>5.03814355602818</v>
+        <v>0.109806</v>
       </c>
       <c r="I5">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="J5">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>629.3351065956012</v>
+        <v>4.601134348768</v>
       </c>
       <c r="R5">
-        <v>629.3351065956012</v>
+        <v>41.410209138912</v>
       </c>
       <c r="S5">
-        <v>0.1206468038935477</v>
+        <v>0.0005994002336732801</v>
       </c>
       <c r="T5">
-        <v>0.1206468038935477</v>
+        <v>0.0005994002336732801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.03814355602818</v>
+        <v>0.036602</v>
       </c>
       <c r="H6">
-        <v>5.03814355602818</v>
+        <v>0.109806</v>
       </c>
       <c r="I6">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="J6">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>265.3443681641144</v>
+        <v>1.961372401963333</v>
       </c>
       <c r="R6">
-        <v>265.3443681641144</v>
+        <v>17.65235161767</v>
       </c>
       <c r="S6">
-        <v>0.05086789154879317</v>
+        <v>0.0002555124425723269</v>
       </c>
       <c r="T6">
-        <v>0.05086789154879317</v>
+        <v>0.000255512442572327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.03814355602818</v>
+        <v>0.036602</v>
       </c>
       <c r="H7">
-        <v>5.03814355602818</v>
+        <v>0.109806</v>
       </c>
       <c r="I7">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="J7">
-        <v>0.4490385656053215</v>
+        <v>0.002288203820224691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>109.2504253358756</v>
+        <v>0.8419453622293334</v>
       </c>
       <c r="R7">
-        <v>109.2504253358756</v>
+        <v>7.577508260064</v>
       </c>
       <c r="S7">
-        <v>0.02094387314905306</v>
+        <v>0.0001096821367529781</v>
       </c>
       <c r="T7">
-        <v>0.02094387314905306</v>
+        <v>0.0001096821367529782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.95575275650415</v>
+        <v>7.463080666666666</v>
       </c>
       <c r="H8">
-        <v>4.95575275650415</v>
+        <v>22.389242</v>
       </c>
       <c r="I8">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="J8">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>7.95484226119974</v>
+        <v>13.053308703114</v>
       </c>
       <c r="R8">
-        <v>7.95484226119974</v>
+        <v>117.479778328026</v>
       </c>
       <c r="S8">
-        <v>0.001524984518157149</v>
+        <v>0.001700484205367963</v>
       </c>
       <c r="T8">
-        <v>0.001524984518157149</v>
+        <v>0.001700484205367963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.95575275650415</v>
+        <v>7.463080666666666</v>
       </c>
       <c r="H9">
-        <v>4.95575275650415</v>
+        <v>22.389242</v>
       </c>
       <c r="I9">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="J9">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>705.8751098101776</v>
+        <v>1067.485872727969</v>
       </c>
       <c r="R9">
-        <v>705.8751098101776</v>
+        <v>9607.372854551721</v>
       </c>
       <c r="S9">
-        <v>0.135319919473884</v>
+        <v>0.1390638118896477</v>
       </c>
       <c r="T9">
-        <v>0.135319919473884</v>
+        <v>0.1390638118896477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.95575275650415</v>
+        <v>7.463080666666666</v>
       </c>
       <c r="H10">
-        <v>4.95575275650415</v>
+        <v>22.389242</v>
       </c>
       <c r="I10">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="J10">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>602.6917619497303</v>
+        <v>991.1330248775013</v>
       </c>
       <c r="R10">
-        <v>602.6917619497303</v>
+        <v>8920.197223897512</v>
       </c>
       <c r="S10">
-        <v>0.1155391365429257</v>
+        <v>0.129117152789062</v>
       </c>
       <c r="T10">
-        <v>0.1155391365429257</v>
+        <v>0.129117152789062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.95575275650415</v>
+        <v>7.463080666666666</v>
       </c>
       <c r="H11">
-        <v>4.95575275650415</v>
+        <v>22.389242</v>
       </c>
       <c r="I11">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="J11">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>619.0433350284908</v>
+        <v>938.1628545715093</v>
       </c>
       <c r="R11">
-        <v>619.0433350284908</v>
+        <v>8443.465691143583</v>
       </c>
       <c r="S11">
-        <v>0.118673817907288</v>
+        <v>0.1222166082597273</v>
       </c>
       <c r="T11">
-        <v>0.118673817907288</v>
+        <v>0.1222166082597273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.95575275650415</v>
+        <v>7.463080666666666</v>
       </c>
       <c r="H12">
-        <v>4.95575275650415</v>
+        <v>22.389242</v>
       </c>
       <c r="I12">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="J12">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>261.0050843785062</v>
+        <v>399.9202353211878</v>
       </c>
       <c r="R12">
-        <v>261.0050843785062</v>
+        <v>3599.28211789069</v>
       </c>
       <c r="S12">
-        <v>0.05003602834199906</v>
+        <v>0.05209851839392136</v>
       </c>
       <c r="T12">
-        <v>0.05003602834199906</v>
+        <v>0.05209851839392138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.95575275650415</v>
+        <v>7.463080666666666</v>
       </c>
       <c r="H13">
-        <v>4.95575275650415</v>
+        <v>22.389242</v>
       </c>
       <c r="I13">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="J13">
-        <v>0.4416952563038072</v>
+        <v>0.4665605620488416</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>107.4638089380572</v>
+        <v>171.6711151096498</v>
       </c>
       <c r="R13">
-        <v>107.4638089380572</v>
+        <v>1545.040035986848</v>
       </c>
       <c r="S13">
-        <v>0.02060136951955333</v>
+        <v>0.02236398651111525</v>
       </c>
       <c r="T13">
-        <v>0.02060136951955333</v>
+        <v>0.02236398651111526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.22594969164454</v>
+        <v>5.334264999999999</v>
       </c>
       <c r="H14">
-        <v>1.22594969164454</v>
+        <v>16.002795</v>
       </c>
       <c r="I14">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="J14">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>1.967861775267038</v>
+        <v>9.329901532515001</v>
       </c>
       <c r="R14">
-        <v>1.967861775267038</v>
+        <v>83.96911379263501</v>
       </c>
       <c r="S14">
-        <v>0.0003772493083606254</v>
+        <v>0.001215427486970814</v>
       </c>
       <c r="T14">
-        <v>0.0003772493083606254</v>
+        <v>0.001215427486970814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.22594969164454</v>
+        <v>5.334264999999999</v>
       </c>
       <c r="H15">
-        <v>1.22594969164454</v>
+        <v>16.002795</v>
       </c>
       <c r="I15">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="J15">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>174.6187543508091</v>
+        <v>762.9895459016334</v>
       </c>
       <c r="R15">
-        <v>174.6187543508091</v>
+        <v>6866.905913114701</v>
       </c>
       <c r="S15">
-        <v>0.03347532084498032</v>
+        <v>0.09939638303023365</v>
       </c>
       <c r="T15">
-        <v>0.03347532084498032</v>
+        <v>0.09939638303023367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.22594969164454</v>
+        <v>5.334264999999999</v>
       </c>
       <c r="H16">
-        <v>1.22594969164454</v>
+        <v>16.002795</v>
       </c>
       <c r="I16">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="J16">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>149.0933498950792</v>
+        <v>708.4160604831799</v>
       </c>
       <c r="R16">
-        <v>149.0933498950792</v>
+        <v>6375.74454434862</v>
       </c>
       <c r="S16">
-        <v>0.02858196842684993</v>
+        <v>0.09228697099558068</v>
       </c>
       <c r="T16">
-        <v>0.02858196842684993</v>
+        <v>0.09228697099558072</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22594969164454</v>
+        <v>5.334264999999999</v>
       </c>
       <c r="H17">
-        <v>1.22594969164454</v>
+        <v>16.002795</v>
       </c>
       <c r="I17">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="J17">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>153.1383874420997</v>
+        <v>670.5554318597599</v>
       </c>
       <c r="R17">
-        <v>153.1383874420997</v>
+        <v>6034.99888673784</v>
       </c>
       <c r="S17">
-        <v>0.02935742310363949</v>
+        <v>0.08735478081731049</v>
       </c>
       <c r="T17">
-        <v>0.02935742310363949</v>
+        <v>0.0873547808173105</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22594969164454</v>
+        <v>5.334264999999999</v>
       </c>
       <c r="H18">
-        <v>1.22594969164454</v>
+        <v>16.002795</v>
       </c>
       <c r="I18">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="J18">
-        <v>0.1092661780908712</v>
+        <v>0.3334759180124272</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>64.5672047080097</v>
+        <v>285.8444936276416</v>
       </c>
       <c r="R18">
-        <v>64.5672047080097</v>
+        <v>2572.600442648775</v>
       </c>
       <c r="S18">
-        <v>0.01237786801136996</v>
+        <v>0.03723761213808189</v>
       </c>
       <c r="T18">
-        <v>0.01237786801136996</v>
+        <v>0.0372376121380819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.334264999999999</v>
+      </c>
+      <c r="H19">
+        <v>16.002795</v>
+      </c>
+      <c r="I19">
+        <v>0.3334759180124272</v>
+      </c>
+      <c r="J19">
+        <v>0.3334759180124272</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N19">
+        <v>69.008144</v>
+      </c>
+      <c r="O19">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P19">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q19">
+        <v>122.7025757513866</v>
+      </c>
+      <c r="R19">
+        <v>1104.32318176248</v>
+      </c>
+      <c r="S19">
+        <v>0.01598474354424962</v>
+      </c>
+      <c r="T19">
+        <v>0.01598474354424963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5192973333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.557892</v>
+      </c>
+      <c r="I20">
+        <v>0.03246429544740254</v>
+      </c>
+      <c r="J20">
+        <v>0.03246429544740255</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.749051</v>
+      </c>
+      <c r="N20">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P20">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q20">
+        <v>0.9082775201640001</v>
+      </c>
+      <c r="R20">
+        <v>8.174497681476</v>
+      </c>
+      <c r="S20">
+        <v>0.0001183233777931877</v>
+      </c>
+      <c r="T20">
+        <v>0.0001183233777931878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5192973333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.557892</v>
+      </c>
+      <c r="I21">
+        <v>0.03246429544740254</v>
+      </c>
+      <c r="J21">
+        <v>0.03246429544740255</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N21">
+        <v>429.10666</v>
+      </c>
+      <c r="O21">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P21">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q21">
+        <v>74.27798141785777</v>
+      </c>
+      <c r="R21">
+        <v>668.5018327607199</v>
+      </c>
+      <c r="S21">
+        <v>0.009676361532578325</v>
+      </c>
+      <c r="T21">
+        <v>0.009676361532578328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5192973333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.557892</v>
+      </c>
+      <c r="I22">
+        <v>0.03246429544740254</v>
+      </c>
+      <c r="J22">
+        <v>0.03246429544740255</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>132.804812</v>
+      </c>
+      <c r="N22">
+        <v>398.414436</v>
+      </c>
+      <c r="O22">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P22">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q22">
+        <v>68.96518472543465</v>
+      </c>
+      <c r="R22">
+        <v>620.6866625289119</v>
+      </c>
+      <c r="S22">
+        <v>0.008984251427219257</v>
+      </c>
+      <c r="T22">
+        <v>0.00898425142721926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5192973333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.557892</v>
+      </c>
+      <c r="I23">
+        <v>0.03246429544740254</v>
+      </c>
+      <c r="J23">
+        <v>0.03246429544740255</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.707184</v>
+      </c>
+      <c r="N23">
+        <v>377.121552</v>
+      </c>
+      <c r="O23">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P23">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q23">
+        <v>65.27940543204267</v>
+      </c>
+      <c r="R23">
+        <v>587.5146488883839</v>
+      </c>
+      <c r="S23">
+        <v>0.008504096577944133</v>
+      </c>
+      <c r="T23">
+        <v>0.008504096577944134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5192973333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.557892</v>
+      </c>
+      <c r="I24">
+        <v>0.03246429544740254</v>
+      </c>
+      <c r="J24">
+        <v>0.03246429544740255</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N24">
+        <v>160.759445</v>
+      </c>
+      <c r="O24">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P24">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q24">
+        <v>27.82731703221555</v>
+      </c>
+      <c r="R24">
+        <v>250.44585328994</v>
+      </c>
+      <c r="S24">
+        <v>0.00362512786354013</v>
+      </c>
+      <c r="T24">
+        <v>0.003625127863540131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5192973333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.557892</v>
+      </c>
+      <c r="I25">
+        <v>0.03246429544740254</v>
+      </c>
+      <c r="J25">
+        <v>0.03246429544740255</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>11.94524838582755</v>
+      </c>
+      <c r="R25">
+        <v>107.507235472448</v>
+      </c>
+      <c r="S25">
+        <v>0.00155613466832751</v>
+      </c>
+      <c r="T25">
+        <v>0.001556134668327511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.642707666666667</v>
+      </c>
+      <c r="H26">
+        <v>7.928123</v>
+      </c>
+      <c r="I26">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="J26">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>4.622230487091001</v>
+      </c>
+      <c r="R26">
+        <v>41.60007438381901</v>
+      </c>
+      <c r="S26">
+        <v>0.0006021484755810166</v>
+      </c>
+      <c r="T26">
+        <v>0.0006021484755810167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.642707666666667</v>
+      </c>
+      <c r="H27">
+        <v>7.928123</v>
+      </c>
+      <c r="I27">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="J27">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>378.001153399909</v>
+      </c>
+      <c r="R27">
+        <v>3402.01038059918</v>
+      </c>
+      <c r="S27">
+        <v>0.04924306975242795</v>
+      </c>
+      <c r="T27">
+        <v>0.04924306975242795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.642707666666667</v>
+      </c>
+      <c r="H28">
+        <v>7.928123</v>
+      </c>
+      <c r="I28">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="J28">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>350.9642948426253</v>
+      </c>
+      <c r="R28">
+        <v>3158.678653583628</v>
+      </c>
+      <c r="S28">
+        <v>0.04572091671176168</v>
+      </c>
+      <c r="T28">
+        <v>0.04572091671176169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.22594969164454</v>
-      </c>
-      <c r="H19">
-        <v>1.22594969164454</v>
-      </c>
-      <c r="I19">
-        <v>0.1092661780908712</v>
-      </c>
-      <c r="J19">
-        <v>0.1092661780908712</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N19">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O19">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P19">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q19">
-        <v>26.58430109485399</v>
-      </c>
-      <c r="R19">
-        <v>26.58430109485399</v>
-      </c>
-      <c r="S19">
-        <v>0.005096348395670912</v>
-      </c>
-      <c r="T19">
-        <v>0.005096348395670912</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.642707666666667</v>
+      </c>
+      <c r="H29">
+        <v>7.928123</v>
+      </c>
+      <c r="I29">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="J29">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>332.2073389118773</v>
+      </c>
+      <c r="R29">
+        <v>2989.866050206896</v>
+      </c>
+      <c r="S29">
+        <v>0.04327740541309679</v>
+      </c>
+      <c r="T29">
+        <v>0.04327740541309679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.642707666666667</v>
+      </c>
+      <c r="H30">
+        <v>7.928123</v>
+      </c>
+      <c r="I30">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="J30">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>141.6134059301928</v>
+      </c>
+      <c r="R30">
+        <v>1274.520653371735</v>
+      </c>
+      <c r="S30">
+        <v>0.01844830039108832</v>
+      </c>
+      <c r="T30">
+        <v>0.01844830039108833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.642707666666667</v>
+      </c>
+      <c r="H31">
+        <v>7.928123</v>
+      </c>
+      <c r="I31">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="J31">
+        <v>0.1652110206711039</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>60.78945040374578</v>
+      </c>
+      <c r="R31">
+        <v>547.105053633712</v>
+      </c>
+      <c r="S31">
+        <v>0.007919179927148164</v>
+      </c>
+      <c r="T31">
+        <v>0.007919179927148166</v>
       </c>
     </row>
   </sheetData>
